--- a/MauImport/MauImportQLTS.xlsx
+++ b/MauImport/MauImportQLTS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VịTrí" sheetId="3" r:id="rId1"/>
@@ -362,55 +362,6 @@
     <t>Tầng Trệt</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lưu ý:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- Không xóa mẫu.
-- Nhập từ dòng phía dưới với STT bắt đầu là 1.
-- Có dấu * là bắt buộc.
-- Hình ảnh bỏ vào thư mục </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hinhanh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ngang hàng với file MauImportQLTS
-- Hình ảnh đặt tên theo dạng: tênphòng-sốhình, đổi dấu chấm (.) thành dấu (-), cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.
-- Độ lớn ảnh tính theo pixel, nếu ảnh kích thước quá lớn nên chọn pixel cho ảnh. Ví dụ ảnh gốc có kích thước 1200x1600px , nếu đặt 400 thì sẽ thu lại thành 400x533px.
-- Độ lớn rỗng sẽ lấy kích thước mặc định của ảnh
-- Nếu trùng tên nhân viên phải dùng thêm mã nhân viên</t>
-    </r>
-  </si>
-  <si>
     <t>Tên loại thiết bị(*)</t>
   </si>
   <si>
@@ -574,6 +525,56 @@
 - Hình ảnh đặt tên theo dạng: tb-tênthiếtbị-mãthiếtbị-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.
 - Độ lớn ảnh tính theo pixel, nếu ảnh kích thước quá lớn nên chọn pixel cho ảnh. Ví dụ ảnh gốc có kích thước 1200x1600px , nếu đặt 400 thì sẽ thu lại thành 400x533px.
 - Độ lớn rỗng sẽ lấy kích thước mặc định của ảnh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lưu ý:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Không xóa mẫu.
+- Nhập từ dòng phía dưới với STT bắt đầu là 1.
+- Có dấu * là bắt buộc.
+- Nếu phòng thuộc cơ sở thì Dãy và Tầng để trống
+- Hình ảnh bỏ vào thư mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hinhanh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ngang hàng với file MauImportQLTS
+- Hình ảnh đặt tên theo dạng: tênphòng-sốhình, đổi dấu chấm (.) thành dấu (-), cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.
+- Độ lớn ảnh tính theo pixel, nếu ảnh kích thước quá lớn nên chọn pixel cho ảnh. Ví dụ ảnh gốc có kích thước 1200x1600px , nếu đặt 400 thì sẽ thu lại thành 400x533px.
+- Độ lớn rỗng sẽ lấy kích thước mặc định của ảnh
+- Nếu trùng tên nhân viên phải dùng thêm mã nhân viên</t>
     </r>
   </si>
 </sst>
@@ -681,13 +682,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,7 +961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1165,19 +1166,19 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="255.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1266,7 +1267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:G3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1328,15 +1329,15 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="139.5" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1362,9 +1363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L1:L2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1460,21 +1461,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="156" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+    <row r="3" spans="1:19" ht="183" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1582,7 +1583,7 @@
         <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1591,7 +1592,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1620,7 +1621,7 @@
         <v>41735</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="9">
         <v>400</v>
@@ -1646,7 +1647,7 @@
         <v>41736</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="9">
         <v>400</v>
@@ -1672,7 +1673,7 @@
         <v>41737</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="9">
         <v>400</v>
@@ -1695,23 +1696,23 @@
         <v>41737</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="9">
         <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="175.5" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="A6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1758,7 +1759,7 @@
         <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1768,14 +1769,14 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
@@ -1849,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1882,13 +1883,13 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1943,7 +1944,7 @@
       <c r="K2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="15">
         <v>20</v>
       </c>
       <c r="M2" s="12" t="s">
@@ -1980,7 +1981,7 @@
       <c r="K3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="15" t="s">
         <v>54</v>
       </c>
       <c r="M3" s="12" t="s">
@@ -1988,21 +1989,21 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="197.25" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="A4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="4"/>
       <c r="O4" s="14"/>
       <c r="P4" s="4"/>

--- a/MauImport/MauImportQLTS.xlsx
+++ b/MauImport/MauImportQLTS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VịTrí" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Phòng" sheetId="8" r:id="rId3"/>
     <sheet name="Loại thiết bị" sheetId="5" r:id="rId4"/>
     <sheet name="Tình trạng" sheetId="9" r:id="rId5"/>
-    <sheet name="Thiết bị" sheetId="6" r:id="rId6"/>
+    <sheet name="Thiết bị theo số lượng" sheetId="6" r:id="rId6"/>
+    <sheet name="Thiết bị theo cá thể" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VịTrí!$C$7:$C$16</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>Mã cơ sở</t>
   </si>
@@ -59,9 +60,6 @@
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>Độ lớn ảnh</t>
-  </si>
-  <si>
     <t>Mã dãy</t>
   </si>
   <si>
@@ -143,9 +141,6 @@
     <t>Unique Tầng</t>
   </si>
   <si>
-    <t>CA017-1.jpg,CA017-2.gif</t>
-  </si>
-  <si>
     <t>Thiết bị cha</t>
   </si>
   <si>
@@ -182,15 +177,9 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Thuộc phòng</t>
-  </si>
-  <si>
     <t>C.A018</t>
   </si>
   <si>
-    <t>tb-bansinhvien-1.jpg,tb-bansinhvien-2.gif</t>
-  </si>
-  <si>
     <t>SONY M170</t>
   </si>
   <si>
@@ -200,12 +189,6 @@
     <t>Máy chiếu</t>
   </si>
   <si>
-    <t>tb-sony170-maychieusony-1.png</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>STT(*)</t>
   </si>
   <si>
@@ -224,52 +207,40 @@
     <t>Số điện thoại(*)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lưu ý:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- Không xóa mẫu.
-- Nhập từ dòng phía dưới với STT bắt đầu là 1.
-- Có dấu * là bắt buộc.
-- Hình ảnh bỏ vào thư mục </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hinhanh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ngang hàng với file MauImportQLTS
-- Hình ảnh đặt tên theo dạng: tênnhânviên-sốđiệnthoại-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.
-- Độ lớn ảnh tính theo pixel, nếu ảnh kích thước quá lớn nên chọn pixel cho ảnh. Ví dụ ảnh gốc có kích thước 1200x1600px , nếu đặt 400 thì sẽ thu lại thành 400x533px.
-- Độ lớn rỗng sẽ lấy kích thước mặc định của ảnh.</t>
-    </r>
+    <t>Tên phòng(*)</t>
+  </si>
+  <si>
+    <t>Cơ sở(*)</t>
+  </si>
+  <si>
+    <t>Dãy(*)</t>
+  </si>
+  <si>
+    <t>Tầng(*)</t>
+  </si>
+  <si>
+    <t>Tầng Trệt</t>
+  </si>
+  <si>
+    <t>Tên loại thiết bị(*)</t>
+  </si>
+  <si>
+    <t>Quản lý theo số lượng(*)</t>
+  </si>
+  <si>
+    <t>Tình trạng(*)</t>
+  </si>
+  <si>
+    <t>Tên thiết bị(*)</t>
+  </si>
+  <si>
+    <t>Loại thiết bị(*)</t>
+  </si>
+  <si>
+    <t>C.A017-1.jpg,C.A017-2.gif</t>
+  </si>
+  <si>
+    <t>Ngày tạo dữ liệu</t>
   </si>
   <si>
     <r>
@@ -341,43 +312,8 @@
 - Hình ảnh đặt tên theo dạng: 
 + Nếu dòng đó là cơ sở: têncơsở-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.
 + Nếu dòng đó là dãy: têncơsở-têndãy-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.
-+ Nếu dòng đó là tầng: têncơsở-têndãy-têntầng-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.
-- Độ lớn ảnh tính theo pixel, nếu ảnh kích thước quá lớn nên chọn pixel cho ảnh. Ví dụ ảnh gốc có kích thước 1200x1600px , nếu đặt 400 thì sẽ thu lại thành 400x533px.
-- Độ lớn rỗng sẽ lấy kích thước mặc định của ảnh.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tên phòng(*)</t>
-  </si>
-  <si>
-    <t>Cơ sở(*)</t>
-  </si>
-  <si>
-    <t>Dãy(*)</t>
-  </si>
-  <si>
-    <t>Tầng(*)</t>
-  </si>
-  <si>
-    <t>Tầng Trệt</t>
-  </si>
-  <si>
-    <t>Tên loại thiết bị(*)</t>
-  </si>
-  <si>
-    <t>Quản lý theo số lượng(*)</t>
-  </si>
-  <si>
-    <t>ltb-maychieu-1.jpg,ltb-maychieu-2.gif</t>
-  </si>
-  <si>
-    <t>ltb-bansinhvien-1.jpg,ltb-bansinhvien-2.gif</t>
-  </si>
-  <si>
-    <t>ltb-bangiaovien-1.jpg,ltb-bangiaovien-2.gif</t>
-  </si>
-  <si>
-    <t>ltb-ban-1.jpg,ltb-ban-2.gif</t>
++ Nếu dòng đó là tầng: têncơsở-têndãy-têntầng-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -402,8 +338,6 @@
 - Không xóa mẫu.
 - Nhập từ dòng phía dưới với STT bắt đầu là 1.
 - Có dấu * là bắt buộc.
-- Thiết bị cha: Nếu có thiết bị cha thì ghi tên giống thiết bị cha, ngược lại để trống.
-- Quản lý theo số lượng: thông thường bàn, ghế, bóng đèn (những loại thiết bị rẻ tiền) được quản lý theo số lượng nhiều. Còn máy chiếu, máy lạnh quản lý theo từng cá thể.
 - Hình ảnh bỏ vào thư mục </t>
     </r>
     <r>
@@ -424,107 +358,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> ngang hàng với file MauImportQLTS
-- Hình ảnh đặt tên theo dạng: ltb-tênloạithiếtbị-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.
-- Độ lớn ảnh tính theo pixel, nếu ảnh kích thước quá lớn nên chọn pixel cho ảnh. Ví dụ ảnh gốc có kích thước 1200x1600px , nếu đặt 400 thì sẽ thu lại thành 400x533px.
-- Độ lớn rỗng sẽ lấy kích thước mặc định của ảnh</t>
-    </r>
-  </si>
-  <si>
-    <t>Tình trạng(*)</t>
-  </si>
-  <si>
-    <t>Tên thiết bị(*)</t>
-  </si>
-  <si>
-    <t>Loại thiết bị(*)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lưu ý:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- Không xóa mẫu.
-- Nhập từ dòng phía dưới với STT bắt đầu là 1.
-- Có dấu * là bắt buộc. Không có dấu * có thể để trống.
-- Nếu thiết bị mới chưa đưa vào phòng sử dụng thì chỉ điền đến cột </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Độ lớn ảnh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">".
-- Tên thiết bị có thể trùng với loại thiết bị.
-- Thiết bị thuộc </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">loại thiết bị </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Quản lý theo số lượng=&gt;Sai) thì số lượng là 1 (thường là máy chiếu, máy lạnh)
-- Hình ảnh bỏ vào thư mục </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hinhanh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ngang hàng với file MauImportQLTS.
-- Hình ảnh đặt tên theo dạng: tb-tênthiếtbị-mãthiếtbị-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.
-- Độ lớn ảnh tính theo pixel, nếu ảnh kích thước quá lớn nên chọn pixel cho ảnh. Ví dụ ảnh gốc có kích thước 1200x1600px , nếu đặt 400 thì sẽ thu lại thành 400x533px.
-- Độ lớn rỗng sẽ lấy kích thước mặc định của ảnh</t>
+- Hình ảnh đặt tên theo dạng: tênnhânviên-sốđiệnthoại-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.</t>
     </r>
   </si>
   <si>
@@ -571,21 +405,181 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> ngang hàng với file MauImportQLTS
-- Hình ảnh đặt tên theo dạng: tênphòng-sốhình, đổi dấu chấm (.) thành dấu (-), cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.
-- Độ lớn ảnh tính theo pixel, nếu ảnh kích thước quá lớn nên chọn pixel cho ảnh. Ví dụ ảnh gốc có kích thước 1200x1600px , nếu đặt 400 thì sẽ thu lại thành 400x533px.
-- Độ lớn rỗng sẽ lấy kích thước mặc định của ảnh
-- Nếu trùng tên nhân viên phải dùng thêm mã nhân viên</t>
-    </r>
+- Hình ảnh đặt tên theo dạng: tênphòng-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tên Loại thiết bị(*)</t>
+  </si>
+  <si>
+    <t>Tên phòng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lưu ý:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Không xóa mẫu.
+- Nhập từ dòng phía dưới với STT bắt đầu là 1.
+- Có dấu * là bắt buộc.
+- Thiết bị cha: Nếu có thiết bị cha thì ghi tên thiết bị cha, ngược lại để trống.
+- Quản lý theo số lượng: thông thường bàn, ghế, bóng đèn (những loại thiết bị rẻ tiền) được quản lý theo số lượng nhiều. Còn máy chiếu, máy lạnh quản lý theo từng cá thể.</t>
+    </r>
+  </si>
+  <si>
+    <t>bansinhvien-1.jpg,bansinhvien-2.gif</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lưu ý:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Không xóa mẫu.
+- Nhập từ dòng phía dưới với STT bắt đầu là 1.
+- Có dấu * là bắt buộc. Không có dấu * có thể để trống.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Vì đây là thiết bị theo số lượng nên chỉ cần nhập "Tên Loại thiết bị" [Tên loại thiết bị này trùng với tên loại thiết bị bên Sheet "Loại thiết bị được Quản lý theo số lượng"].
+- "Loại thiết bị được Quản lý theo số lượng"  có thể sử dụng cho nhiều phòng.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Hình ảnh bỏ vào thư mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hinhanh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ngang hàng với file MauImportQLTS.
+- Hình ảnh đặt tên theo dạng: tênthiếtbị-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lưu ý:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Không xóa mẫu.
+- Nhập từ dòng phía dưới với STT bắt đầu là 1.
+- Có dấu * là bắt buộc. Không có dấu * có thể để trống.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Hình ảnh bỏ vào thư mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hinhanh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ngang hàng với file MauImportQLTS.
+- Hình ảnh đặt tên theo dạng: tênthiếtbị-mãthiếtbị-sốhình, cách nhau bởi dấu phẩy nếu dùng nhiều hình. Xem ví dụ trên cột hình ảnh.</t>
+    </r>
+  </si>
+  <si>
+    <t>sony170-maychieusony-1.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +623,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -638,7 +645,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -646,11 +653,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,9 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -676,17 +695,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,11 +1025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:K6"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -985,209 +1041,192 @@
     <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="26" width="9.140625" style="2"/>
-    <col min="27" max="27" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="25" width="9.140625" style="2"/>
+    <col min="26" max="26" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:28" s="26" customFormat="1">
+      <c r="A1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Z1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="str">
+      <c r="H2" s="7" t="str">
         <f>C2</f>
         <v>Cơ sở chính</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="16">
         <v>41735</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="13">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>23</v>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="8" t="str">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="str">
         <f>C3&amp;" - "&amp;E3</f>
         <v>Cơ sở chính - Dãy A</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="16">
         <v>41736</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="J3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="8" t="str">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="str">
         <f t="shared" ref="H4:H5" si="0">C4&amp;" - "&amp;E4&amp;" - "&amp;G4</f>
         <v>Cơ sở chính - Dãy A - Tầng trệt</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="16">
         <v>41737</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="13">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="8" t="str">
+      <c r="H5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Cơ sở chính - Dãy A - Tầng 1</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="16">
         <v>41738</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="13">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="255.75" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="J5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="223.5" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:29">
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1195,37 +1234,37 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:28">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:28">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:28">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:28">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:28">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:28">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:28">
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
     </row>
@@ -1236,7 +1275,7 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="1">
-    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1263,11 +1302,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1275,85 +1314,77 @@
     <col min="1" max="1" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="68.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:13" s="26" customFormat="1">
+      <c r="A1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>3110410001</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="E2" s="16">
         <v>41735</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="139.5" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="106.5" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1361,9 +1392,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -1379,132 +1410,124 @@
     <col min="7" max="7" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="26" customFormat="1">
+      <c r="A1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="E1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7">
         <v>4120</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="16">
         <v>41735</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="183" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="K2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="124.5" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="8"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
@@ -1559,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1572,163 +1595,121 @@
     <col min="3" max="3" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:13" s="25" customFormat="1">
+      <c r="A1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12">
+      <c r="C2" s="7"/>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="19">
         <v>41735</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12">
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="19">
         <v>41736</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12">
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="19">
         <v>41737</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="19">
         <v>41737</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="175.5" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+    </row>
+    <row r="6" spans="1:13" ht="125.25" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1739,7 +1720,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1754,36 +1735,36 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" s="25" customFormat="1">
+      <c r="A1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>B3</f>
@@ -1795,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" ref="C4:C7" si="0">B4</f>
@@ -1807,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1819,7 +1800,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1831,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1848,181 +1829,240 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="13.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" s="25" customFormat="1">
+      <c r="A1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="14">
+        <v>20</v>
+      </c>
+      <c r="F2" s="19">
         <v>41735</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="9">
-        <v>400</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="G2" s="30">
         <v>41735</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="15">
-        <v>20</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12">
-        <v>41735</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="9">
-        <v>300</v>
-      </c>
-      <c r="J3" s="12">
-        <v>41736</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="197.25" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="3">
+      <c r="H2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="156" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="25" customFormat="1">
+      <c r="A1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19">
+        <v>41735</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="108" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MauImport/MauImportQLTS.xlsx
+++ b/MauImport/MauImportQLTS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="VịTrí" sheetId="3" r:id="rId1"/>
@@ -577,7 +577,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -702,18 +702,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -722,7 +716,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -736,13 +730,19 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1027,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -1041,7 +1041,7 @@
     <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="66" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="25" width="9.140625" style="2"/>
     <col min="26" max="26" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1050,44 +1050,44 @@
     <col min="29" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="26" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:28" s="24" customFormat="1">
+      <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
         <f>C2</f>
         <v>Cơ sở chính</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>41735</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -1132,7 +1132,7 @@
         <f>C3&amp;" - "&amp;E3</f>
         <v>Cơ sở chính - Dãy A</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>41736</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -1165,7 +1165,7 @@
         <f t="shared" ref="H4:H5" si="0">C4&amp;" - "&amp;E4&amp;" - "&amp;G4</f>
         <v>Cơ sở chính - Dãy A - Tầng trệt</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>41737</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -1198,7 +1198,7 @@
         <f t="shared" si="0"/>
         <v>Cơ sở chính - Dãy A - Tầng 1</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>41738</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -1206,18 +1206,18 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="223.5" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1315,28 +1315,28 @@
     <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="68.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" s="24" customFormat="1">
+      <c r="A1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>41735</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1361,14 +1361,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="106.5" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1410,43 +1410,43 @@
     <col min="7" max="7" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="26" customFormat="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:18" s="24" customFormat="1">
+      <c r="A1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       <c r="I2" s="7">
         <v>4120</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>41735</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -1486,19 +1486,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="124.5" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1595,27 +1595,27 @@
     <col min="3" max="3" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" s="23" customFormat="1">
+      <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       <c r="E2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <v>41735</v>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       <c r="E3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>41736</v>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>41737</v>
       </c>
     </row>
@@ -1681,19 +1681,19 @@
       <c r="E5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <v>41737</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="125.25" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1735,29 +1735,29 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="25" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1">
+      <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
@@ -1844,40 +1844,40 @@
     <col min="3" max="3" width="14" style="6" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="25" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:17" s="23" customFormat="1">
+      <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="22"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
@@ -1886,7 +1886,7 @@
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -1895,10 +1895,10 @@
       <c r="E2" s="14">
         <v>20</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <v>41735</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="28">
         <v>41735</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1906,16 +1906,16 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="156" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="4"/>
       <c r="J3" s="12"/>
       <c r="K3" s="4"/>
@@ -1944,7 +1944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1957,50 +1957,50 @@
     <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:20" s="23" customFormat="1">
+      <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="22"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1">
@@ -2022,29 +2022,29 @@
       <c r="G2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17">
         <v>41735</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="108" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="4"/>
       <c r="M3" s="12"/>
       <c r="N3" s="4"/>
